--- a/apps/load_data/2020/04/PLMOVMAE.xlsx
+++ b/apps/load_data/2020/04/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2020\HHY0420\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-m\HHY0420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49EEC9C-1441-488F-BA41-6CD876BF35F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92647C9-E9D3-408D-814F-9989F42CECB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$259</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$259</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11457" uniqueCount="3122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11436" uniqueCount="3119">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6823,9 +6824,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8041,9 +8039,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8321,9 +8316,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9394,7 +9386,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10234,10 +10226,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC262" sqref="AC262"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43227,12 +43221,7 @@
       <c r="AB173" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2266</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>106</v>
       </c>
@@ -43285,7 +43274,7 @@
         <v>20</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="BE173" s="1" t="s">
         <v>113</v>
@@ -43297,10 +43286,10 @@
         <v>115</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2269</v>
       </c>
       <c r="BM173" s="1" t="s">
         <v>118</v>
@@ -43315,13 +43304,13 @@
         <v>163</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="BS173" s="3">
         <v>36225</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>122</v>
@@ -43342,19 +43331,19 @@
         <v>101</v>
       </c>
       <c r="CC173" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="CD173" s="1" t="s">
         <v>2272</v>
       </c>
-      <c r="CD173" s="1" t="s">
+      <c r="CE173" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CG173" s="1" t="s">
         <v>2274</v>
       </c>
-      <c r="CG173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2275</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2276</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>130</v>
@@ -43392,13 +43381,13 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2277</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2279</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
@@ -43430,12 +43419,7 @@
       <c r="AB174" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2266</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>106</v>
       </c>
@@ -43482,7 +43466,7 @@
         <v>101</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BB174" s="1">
         <v>4</v>
@@ -43491,7 +43475,7 @@
         <v>20</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BE174" s="1" t="s">
         <v>113</v>
@@ -43503,7 +43487,7 @@
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BM174" s="1" t="s">
         <v>118</v>
@@ -43515,13 +43499,13 @@
         <v>102</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BS174" s="3">
         <v>36949</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>122</v>
@@ -43545,16 +43529,16 @@
         <v>101</v>
       </c>
       <c r="CC174" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="CD174" s="1" t="s">
         <v>1979</v>
       </c>
       <c r="CE174" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="CG174" s="1" t="s">
         <v>2286</v>
-      </c>
-      <c r="CG174" s="1" t="s">
-        <v>2287</v>
       </c>
       <c r="CH174" s="1" t="s">
         <v>130</v>
@@ -43595,13 +43579,13 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2288</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2289</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2290</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
@@ -43633,12 +43617,7 @@
       <c r="AB175" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2266</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>106</v>
       </c>
@@ -43685,7 +43664,7 @@
         <v>101</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BB175" s="1">
         <v>4</v>
@@ -43694,7 +43673,7 @@
         <v>20</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="BE175" s="1" t="s">
         <v>113</v>
@@ -43706,10 +43685,10 @@
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="BI175" s="1" t="s">
         <v>2293</v>
-      </c>
-      <c r="BI175" s="1" t="s">
-        <v>2294</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>118</v>
@@ -43724,13 +43703,13 @@
         <v>163</v>
       </c>
       <c r="BR175" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BS175" s="3">
         <v>36825</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>122</v>
@@ -43754,19 +43733,19 @@
         <v>101</v>
       </c>
       <c r="CC175" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="CD175" s="1" t="s">
         <v>2297</v>
       </c>
-      <c r="CD175" s="1" t="s">
+      <c r="CE175" s="1" t="s">
         <v>2298</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CG175" s="1" t="s">
         <v>2299</v>
       </c>
-      <c r="CG175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2300</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2301</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>130</v>
@@ -43804,13 +43783,13 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2302</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2304</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
@@ -43839,12 +43818,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2266</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>106</v>
       </c>
@@ -43894,7 +43868,7 @@
         <v>101</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BB176" s="1">
         <v>4</v>
@@ -43903,7 +43877,7 @@
         <v>20</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BE176" s="1" t="s">
         <v>113</v>
@@ -43915,7 +43889,7 @@
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>927</v>
@@ -43927,7 +43901,7 @@
         <v>105</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>122</v>
@@ -43945,16 +43919,16 @@
         <v>101</v>
       </c>
       <c r="CC176" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="CD176" s="1" t="s">
         <v>1224</v>
       </c>
       <c r="CE176" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="CG176" s="1" t="s">
         <v>2310</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2311</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>933</v>
@@ -43995,13 +43969,13 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2312</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2313</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2314</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
@@ -44033,12 +44007,7 @@
       <c r="AB177" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2266</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>106</v>
       </c>
@@ -44088,7 +44057,7 @@
         <v>101</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BB177" s="1">
         <v>4</v>
@@ -44097,7 +44066,7 @@
         <v>20</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BE177" s="1" t="s">
         <v>113</v>
@@ -44109,7 +44078,7 @@
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>1872</v>
@@ -44121,7 +44090,7 @@
         <v>105</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>122</v>
@@ -44142,13 +44111,13 @@
         <v>678</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2320</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2321</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>1879</v>
@@ -44189,13 +44158,13 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2322</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2323</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2324</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
@@ -44224,12 +44193,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2266</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>106</v>
       </c>
@@ -44279,7 +44243,7 @@
         <v>101</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BB178" s="1">
         <v>4</v>
@@ -44288,7 +44252,7 @@
         <v>20</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BE178" s="1" t="s">
         <v>113</v>
@@ -44300,7 +44264,7 @@
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>591</v>
@@ -44312,7 +44276,7 @@
         <v>105</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>122</v>
@@ -44330,16 +44294,16 @@
         <v>101</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="CD178" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2329</v>
       </c>
-      <c r="CD178" s="1" t="s">
-        <v>2329</v>
-      </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2330</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2331</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>597</v>
@@ -44380,13 +44344,13 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2333</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2334</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
@@ -44421,12 +44385,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2266</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>106</v>
       </c>
@@ -44473,7 +44432,7 @@
         <v>101</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BB179" s="1">
         <v>4</v>
@@ -44482,7 +44441,7 @@
         <v>20</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BE179" s="1" t="s">
         <v>113</v>
@@ -44494,7 +44453,7 @@
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>415</v>
@@ -44509,13 +44468,13 @@
         <v>119</v>
       </c>
       <c r="BR179" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BS179" s="3">
         <v>35243</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>122</v>
@@ -44533,16 +44492,16 @@
         <v>101</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2342</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2343</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>422</v>
@@ -44583,13 +44542,13 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
@@ -44618,12 +44577,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2266</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>106</v>
       </c>
@@ -44673,7 +44627,7 @@
         <v>101</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BB180" s="1">
         <v>4</v>
@@ -44682,7 +44636,7 @@
         <v>20</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BE180" s="1" t="s">
         <v>113</v>
@@ -44694,7 +44648,7 @@
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>591</v>
@@ -44706,7 +44660,7 @@
         <v>105</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>122</v>
@@ -44724,16 +44678,16 @@
         <v>101</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2353</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2354</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>597</v>
@@ -44774,13 +44728,13 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2355</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2356</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2357</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
@@ -44809,12 +44763,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2266</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>106</v>
       </c>
@@ -44864,7 +44813,7 @@
         <v>101</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BB181" s="1">
         <v>4</v>
@@ -44873,7 +44822,7 @@
         <v>20</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BE181" s="1" t="s">
         <v>113</v>
@@ -44897,7 +44846,7 @@
         <v>163</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>122</v>
@@ -44915,13 +44864,13 @@
         <v>101</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="CE181" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="CG181" s="1" t="s">
         <v>1019</v>
@@ -44965,13 +44914,13 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2364</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2365</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2366</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
@@ -45000,12 +44949,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2266</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>106</v>
       </c>
@@ -45052,7 +44996,7 @@
         <v>101</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BB182" s="1">
         <v>4</v>
@@ -45061,7 +45005,7 @@
         <v>20</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BE182" s="1" t="s">
         <v>113</v>
@@ -45073,7 +45017,7 @@
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BI182" s="1" t="s">
         <v>245</v>
@@ -45088,13 +45032,13 @@
         <v>229</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BS182" s="3">
         <v>34307</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>122</v>
@@ -45112,16 +45056,16 @@
         <v>101</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>419</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="CG182" s="1" t="s">
-        <v>2374</v>
       </c>
       <c r="CH182" s="1" t="s">
         <v>252</v>
@@ -45138,13 +45082,13 @@
         <v>88</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>101</v>
@@ -45156,19 +45100,19 @@
         <v>94</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2379</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2380</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2381</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
@@ -45200,12 +45144,7 @@
       <c r="AA183" s="1">
         <v>0</v>
       </c>
-      <c r="AC183" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD183" s="1" t="s">
-        <v>2266</v>
-      </c>
+      <c r="AC183" s="3"/>
       <c r="AF183" s="1" t="s">
         <v>106</v>
       </c>
@@ -45255,7 +45194,7 @@
         <v>101</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="BB183" s="1">
         <v>4</v>
@@ -45264,7 +45203,7 @@
         <v>20</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BE183" s="1" t="s">
         <v>113</v>
@@ -45276,7 +45215,7 @@
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BM183" s="1" t="s">
         <v>118</v>
@@ -45285,7 +45224,7 @@
         <v>105</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>122</v>
@@ -45306,16 +45245,16 @@
         <v>101</v>
       </c>
       <c r="CC183" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="CD183" s="1" t="s">
         <v>2386</v>
       </c>
-      <c r="CD183" s="1" t="s">
+      <c r="CE183" s="1" t="s">
         <v>2387</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CG183" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>130</v>
@@ -45356,13 +45295,13 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2392</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
@@ -45391,12 +45330,7 @@
       <c r="AA184" s="1">
         <v>0</v>
       </c>
-      <c r="AC184" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD184" s="1" t="s">
-        <v>2266</v>
-      </c>
+      <c r="AC184" s="3"/>
       <c r="AF184" s="1" t="s">
         <v>106</v>
       </c>
@@ -45443,7 +45377,7 @@
         <v>101</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BB184" s="1">
         <v>4</v>
@@ -45452,7 +45386,7 @@
         <v>20</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BE184" s="1" t="s">
         <v>113</v>
@@ -45464,7 +45398,7 @@
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="BI184" s="1" t="s">
         <v>591</v>
@@ -45479,13 +45413,13 @@
         <v>119</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="BS184" s="3">
         <v>35950</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>122</v>
@@ -45503,16 +45437,16 @@
         <v>101</v>
       </c>
       <c r="CC184" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="CD184" s="1" t="s">
         <v>1783</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="CG184" s="1" t="s">
         <v>2399</v>
-      </c>
-      <c r="CG184" s="1" t="s">
-        <v>2400</v>
       </c>
       <c r="CH184" s="1" t="s">
         <v>597</v>
@@ -45553,13 +45487,13 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2401</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2402</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2403</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
@@ -45640,7 +45574,7 @@
         <v>101</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BB185" s="1">
         <v>4</v>
@@ -45649,7 +45583,7 @@
         <v>20</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BE185" s="1" t="s">
         <v>113</v>
@@ -45661,7 +45595,7 @@
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>1829</v>
@@ -45676,7 +45610,7 @@
         <v>163</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>122</v>
@@ -45694,16 +45628,16 @@
         <v>101</v>
       </c>
       <c r="CC185" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="CD185" s="1" t="s">
         <v>419</v>
       </c>
       <c r="CE185" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="CG185" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="CG185" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="CH185" s="1" t="s">
         <v>1833</v>
@@ -45744,13 +45678,13 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2413</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
@@ -45825,7 +45759,7 @@
         <v>101</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BB186" s="1">
         <v>4</v>
@@ -45834,7 +45768,7 @@
         <v>20</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BE186" s="1" t="s">
         <v>113</v>
@@ -45846,7 +45780,7 @@
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>1839</v>
@@ -45861,13 +45795,13 @@
         <v>229</v>
       </c>
       <c r="BR186" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BS186" s="3">
         <v>36099</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -45885,16 +45819,16 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2421</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2422</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>1845</v>
@@ -45935,13 +45869,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2425</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -46016,7 +45950,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BB187" s="1">
         <v>4</v>
@@ -46025,7 +45959,7 @@
         <v>20</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BE187" s="1" t="s">
         <v>113</v>
@@ -46037,7 +45971,7 @@
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BI187" s="1" t="s">
         <v>1839</v>
@@ -46052,13 +45986,13 @@
         <v>102</v>
       </c>
       <c r="BR187" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BS187" s="3">
         <v>37735</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -46076,16 +46010,16 @@
         <v>101</v>
       </c>
       <c r="CC187" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="CD187" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="CD187" s="1" t="s">
+      <c r="CE187" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>1845</v>
@@ -46126,13 +46060,13 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
@@ -46210,7 +46144,7 @@
         <v>101</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BB188" s="1">
         <v>4</v>
@@ -46219,7 +46153,7 @@
         <v>20</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BE188" s="1" t="s">
         <v>113</v>
@@ -46231,7 +46165,7 @@
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>118</v>
@@ -46240,7 +46174,7 @@
         <v>105</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -46258,16 +46192,16 @@
         <v>101</v>
       </c>
       <c r="CC188" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="CD188" s="1" t="s">
         <v>869</v>
       </c>
       <c r="CE188" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="CG188" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="CG188" s="1" t="s">
-        <v>2444</v>
       </c>
       <c r="CH188" s="1" t="s">
         <v>130</v>
@@ -46290,7 +46224,7 @@
         <v>188</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>101</v>
@@ -46302,19 +46236,19 @@
         <v>94</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -46350,7 +46284,7 @@
         <v>106</v>
       </c>
       <c r="AG189" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="AH189" s="1" t="s">
         <v>1904</v>
@@ -46395,7 +46329,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BB189" s="1">
         <v>4</v>
@@ -46404,7 +46338,7 @@
         <v>20</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BE189" s="1" t="s">
         <v>113</v>
@@ -46416,7 +46350,7 @@
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>118</v>
@@ -46425,7 +46359,7 @@
         <v>105</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46434,7 +46368,7 @@
         <v>0</v>
       </c>
       <c r="BZ189" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="CA189" s="1" t="s">
         <v>124</v>
@@ -46446,13 +46380,13 @@
         <v>1579</v>
       </c>
       <c r="CD189" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="CE189" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CG189" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>130</v>
@@ -46493,13 +46427,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -46577,7 +46511,7 @@
         <v>101</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BB190" s="1">
         <v>4</v>
@@ -46586,7 +46520,7 @@
         <v>20</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BE190" s="1" t="s">
         <v>113</v>
@@ -46598,10 +46532,10 @@
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>118</v>
@@ -46613,13 +46547,13 @@
         <v>102</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BS190" s="3">
         <v>43602</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -46643,10 +46577,10 @@
         <v>955</v>
       </c>
       <c r="CE190" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="CG190" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="CG190" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="CH190" s="1" t="s">
         <v>1372</v>
@@ -46687,13 +46621,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2472</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -46771,7 +46705,7 @@
         <v>101</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BB191" s="1">
         <v>4</v>
@@ -46780,7 +46714,7 @@
         <v>20</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BE191" s="1" t="s">
         <v>113</v>
@@ -46792,7 +46726,7 @@
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>591</v>
@@ -46804,7 +46738,7 @@
         <v>105</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -46822,16 +46756,16 @@
         <v>101</v>
       </c>
       <c r="CC191" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="CD191" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="CD191" s="1" t="s">
+      <c r="CE191" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CG191" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2480</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>597</v>
@@ -46872,13 +46806,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -46917,7 +46851,7 @@
         <v>42247</v>
       </c>
       <c r="AD192" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="AF192" s="1" t="s">
         <v>106</v>
@@ -46971,7 +46905,7 @@
         <v>20</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BE192" s="1" t="s">
         <v>113</v>
@@ -46983,7 +46917,7 @@
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>118</v>
@@ -46995,13 +46929,13 @@
         <v>229</v>
       </c>
       <c r="BR192" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BS192" s="3">
         <v>36580</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -47022,7 +46956,7 @@
         <v>101</v>
       </c>
       <c r="CC192" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="CD192" s="1" t="s">
         <v>293</v>
@@ -47031,7 +46965,7 @@
         <v>1608</v>
       </c>
       <c r="CG192" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>130</v>
@@ -47072,13 +47006,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2491</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2492</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2493</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -47159,7 +47093,7 @@
         <v>20</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>113</v>
@@ -47171,7 +47105,7 @@
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>1872</v>
@@ -47186,13 +47120,13 @@
         <v>119</v>
       </c>
       <c r="BR193" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BS193" s="3">
         <v>37747</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -47216,10 +47150,10 @@
         <v>666</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="CG193" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2499</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>1879</v>
@@ -47260,13 +47194,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2501</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2502</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -47350,7 +47284,7 @@
         <v>20</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>113</v>
@@ -47362,7 +47296,7 @@
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -47371,7 +47305,7 @@
         <v>105</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47389,16 +47323,16 @@
         <v>101</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>130</v>
@@ -47439,13 +47373,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -47529,7 +47463,7 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -47541,7 +47475,7 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -47550,7 +47484,7 @@
         <v>163</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -47568,16 +47502,16 @@
         <v>101</v>
       </c>
       <c r="CC195" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="CD195" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="CD195" s="1" t="s">
+      <c r="CE195" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="CG195" s="1" t="s">
-        <v>2519</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>130</v>
@@ -47618,13 +47552,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -47705,7 +47639,7 @@
         <v>20</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>113</v>
@@ -47717,7 +47651,7 @@
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BI196" s="1" t="s">
         <v>591</v>
@@ -47732,13 +47666,13 @@
         <v>102</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BS196" s="3">
         <v>37334</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -47759,13 +47693,13 @@
         <v>513</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>597</v>
@@ -47806,13 +47740,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -47893,7 +47827,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -47905,7 +47839,7 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>2046</v>
@@ -47920,13 +47854,13 @@
         <v>102</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BS197" s="3">
         <v>37904</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -47947,13 +47881,13 @@
         <v>955</v>
       </c>
       <c r="CD197" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="CE197" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>2052</v>
@@ -47976,7 +47910,7 @@
         <v>188</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>101</v>
@@ -47988,19 +47922,19 @@
         <v>94</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2540</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2541</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2542</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -48081,7 +48015,7 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>113</v>
@@ -48093,7 +48027,7 @@
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>118</v>
@@ -48105,13 +48039,13 @@
         <v>119</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BS198" s="3">
         <v>36111</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -48120,7 +48054,7 @@
         <v>0</v>
       </c>
       <c r="BZ198" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="CA198" s="1" t="s">
         <v>124</v>
@@ -48129,16 +48063,16 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="CD198" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="CE198" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="CG198" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2549</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>130</v>
@@ -48179,13 +48113,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -48266,7 +48200,7 @@
         <v>20</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -48278,7 +48212,7 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1829</v>
@@ -48293,13 +48227,13 @@
         <v>119</v>
       </c>
       <c r="BR199" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BS199" s="3">
         <v>37785</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48317,16 +48251,16 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2559</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2560</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>1833</v>
@@ -48343,10 +48277,10 @@
         <v>88</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>152</v>
@@ -48361,19 +48295,19 @@
         <v>94</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2565</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -48457,7 +48391,7 @@
         <v>20</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>113</v>
@@ -48469,7 +48403,7 @@
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>118</v>
@@ -48478,7 +48412,7 @@
         <v>105</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -48487,7 +48421,7 @@
         <v>0</v>
       </c>
       <c r="BZ200" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="CA200" s="1" t="s">
         <v>124</v>
@@ -48499,13 +48433,13 @@
         <v>1257</v>
       </c>
       <c r="CD200" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="CE200" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2572</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>130</v>
@@ -48546,13 +48480,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -48630,7 +48564,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BB201" s="1">
         <v>4</v>
@@ -48639,7 +48573,7 @@
         <v>20</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -48651,7 +48585,7 @@
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BM201" s="1" t="s">
         <v>118</v>
@@ -48660,7 +48594,7 @@
         <v>105</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -48678,16 +48612,16 @@
         <v>101</v>
       </c>
       <c r="CC201" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="CD201" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="CD201" s="1" t="s">
+      <c r="CE201" s="1" t="s">
         <v>2581</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2582</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2583</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>130</v>
@@ -48728,13 +48662,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2585</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2586</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -48812,7 +48746,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BB202" s="1">
         <v>4</v>
@@ -48821,7 +48755,7 @@
         <v>20</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>113</v>
@@ -48833,7 +48767,7 @@
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>1829</v>
@@ -48845,7 +48779,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -48863,16 +48797,16 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2591</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2592</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>1833</v>
@@ -48913,13 +48847,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2595</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -48997,7 +48931,7 @@
         <v>101</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BB203" s="1">
         <v>4</v>
@@ -49006,7 +48940,7 @@
         <v>20</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>113</v>
@@ -49018,7 +48952,7 @@
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>118</v>
@@ -49027,7 +48961,7 @@
         <v>105</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -49048,13 +48982,13 @@
         <v>1112</v>
       </c>
       <c r="CD203" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="CE203" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2601</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2602</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>130</v>
@@ -49095,13 +49029,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2604</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2605</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -49179,7 +49113,7 @@
         <v>101</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BB204" s="1">
         <v>4</v>
@@ -49188,7 +49122,7 @@
         <v>20</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>113</v>
@@ -49200,7 +49134,7 @@
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>1872</v>
@@ -49218,13 +49152,13 @@
         <v>163</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BS204" s="3">
         <v>37513</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -49242,16 +49176,16 @@
         <v>101</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="CD204" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE204" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="CG204" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="CG204" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="CH204" s="1" t="s">
         <v>1879</v>
@@ -49292,13 +49226,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2616</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -49379,7 +49313,7 @@
         <v>20</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>113</v>
@@ -49391,7 +49325,7 @@
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>2046</v>
@@ -49406,13 +49340,13 @@
         <v>102</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BS205" s="3">
         <v>41024</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49430,16 +49364,16 @@
         <v>101</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2623</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2624</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>2052</v>
@@ -49480,13 +49414,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2625</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2626</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2627</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -49522,7 +49456,7 @@
         <v>106</v>
       </c>
       <c r="AG206" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="AH206" s="1" t="s">
         <v>1904</v>
@@ -49567,7 +49501,7 @@
         <v>101</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BB206" s="1">
         <v>4</v>
@@ -49576,7 +49510,7 @@
         <v>20</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>113</v>
@@ -49588,7 +49522,7 @@
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BM206" s="1" t="s">
         <v>118</v>
@@ -49600,13 +49534,13 @@
         <v>119</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BS206" s="3">
         <v>34808</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -49624,16 +49558,16 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2633</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>130</v>
@@ -49674,13 +49608,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2637</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -49755,7 +49689,7 @@
         <v>101</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BB207" s="1">
         <v>4</v>
@@ -49764,7 +49698,7 @@
         <v>20</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>113</v>
@@ -49776,7 +49710,7 @@
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BM207" s="1" t="s">
         <v>118</v>
@@ -49788,13 +49722,13 @@
         <v>102</v>
       </c>
       <c r="BR207" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BS207" s="3">
         <v>37336</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -49812,13 +49746,13 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2646</v>
-      </c>
-      <c r="CE207" s="1" t="s">
-        <v>2647</v>
       </c>
       <c r="CG207" s="1" t="s">
         <v>1138</v>
@@ -49862,13 +49796,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2649</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2650</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -49946,7 +49880,7 @@
         <v>101</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BB208" s="1">
         <v>4</v>
@@ -49955,7 +49889,7 @@
         <v>20</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>113</v>
@@ -49967,7 +49901,7 @@
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BI208" s="1" t="s">
         <v>579</v>
@@ -49979,7 +49913,7 @@
         <v>105</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -49997,16 +49931,16 @@
         <v>101</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2657</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2658</v>
       </c>
       <c r="CH208" s="1" t="s">
         <v>585</v>
@@ -50047,13 +49981,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2660</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2661</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -50137,7 +50071,7 @@
         <v>20</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -50149,7 +50083,7 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>118</v>
@@ -50158,7 +50092,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -50176,16 +50110,16 @@
         <v>101</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CG209" s="1" t="s">
         <v>2667</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>130</v>
@@ -50226,13 +50160,13 @@
         <v>2133</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2669</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2670</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2671</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -50267,12 +50201,7 @@
       <c r="AA210" s="1">
         <v>0</v>
       </c>
-      <c r="AC210" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2672</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>106</v>
       </c>
@@ -50322,7 +50251,7 @@
         <v>101</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="BB210" s="1">
         <v>4</v>
@@ -50331,7 +50260,7 @@
         <v>20</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>113</v>
@@ -50343,7 +50272,7 @@
         <v>115</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>1447</v>
@@ -50355,7 +50284,7 @@
         <v>105</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>122</v>
@@ -50367,7 +50296,7 @@
         <v>110</v>
       </c>
       <c r="BZ210" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="CA210" s="1" t="s">
         <v>124</v>
@@ -50379,13 +50308,13 @@
         <v>1162</v>
       </c>
       <c r="CD210" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="CE210" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="CG210" s="1" t="s">
         <v>2678</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2679</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2680</v>
       </c>
       <c r="CH210" s="1" t="s">
         <v>1454</v>
@@ -50426,10 +50355,10 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>110</v>
@@ -50453,7 +50382,7 @@
         <v>106</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>372</v>
@@ -50507,10 +50436,10 @@
         <v>101</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -50521,13 +50450,13 @@
         <v>88</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>2376</v>
-      </c>
       <c r="E212" s="1" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>101</v>
@@ -50539,16 +50468,16 @@
         <v>94</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>110</v>
@@ -50572,7 +50501,7 @@
         <v>106</v>
       </c>
       <c r="AG212" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="AH212" s="1" t="s">
         <v>372</v>
@@ -50617,7 +50546,7 @@
         <v>0</v>
       </c>
       <c r="BZ212" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="CA212" s="1" t="s">
         <v>124</v>
@@ -50626,10 +50555,10 @@
         <v>101</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -50664,10 +50593,10 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>110</v>
@@ -50691,7 +50620,7 @@
         <v>106</v>
       </c>
       <c r="AG213" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="AH213" s="1" t="s">
         <v>372</v>
@@ -50745,10 +50674,10 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -50765,7 +50694,7 @@
         <v>90</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>92</v>
@@ -50777,16 +50706,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>110</v>
@@ -50855,7 +50784,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>124</v>
@@ -50864,10 +50793,10 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -50902,10 +50831,10 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>110</v>
@@ -50983,10 +50912,10 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -51003,7 +50932,7 @@
         <v>90</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>92</v>
@@ -51015,16 +50944,16 @@
         <v>94</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>110</v>
@@ -51093,7 +51022,7 @@
         <v>0</v>
       </c>
       <c r="BZ216" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="CA216" s="1" t="s">
         <v>124</v>
@@ -51102,10 +51031,10 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="CE216" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="217" spans="1:87" x14ac:dyDescent="0.25">
@@ -51140,10 +51069,10 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>110</v>
@@ -51221,10 +51150,10 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="218" spans="1:87" x14ac:dyDescent="0.25">
@@ -51259,13 +51188,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2705</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -51294,12 +51223,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2672</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>106</v>
       </c>
@@ -51352,7 +51276,7 @@
         <v>20</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>113</v>
@@ -51364,7 +51288,7 @@
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>118</v>
@@ -51376,13 +51300,13 @@
         <v>102</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="BS218" s="3">
         <v>36306</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51400,16 +51324,16 @@
         <v>101</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="CD218" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="CE218" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CG218" s="1" t="s">
         <v>2711</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2712</v>
-      </c>
-      <c r="CG218" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>130</v>
@@ -51450,13 +51374,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2715</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2716</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -51485,12 +51409,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2672</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>106</v>
       </c>
@@ -51546,7 +51465,7 @@
         <v>20</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>113</v>
@@ -51558,7 +51477,7 @@
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>118</v>
@@ -51567,7 +51486,7 @@
         <v>105</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51585,16 +51504,16 @@
         <v>101</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="CG219" s="1" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>130</v>
@@ -51635,13 +51554,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2723</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2724</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -51673,12 +51592,7 @@
       <c r="AB220" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2672</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>106</v>
       </c>
@@ -51731,7 +51645,7 @@
         <v>20</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="BE220" s="1" t="s">
         <v>113</v>
@@ -51743,7 +51657,7 @@
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>118</v>
@@ -51755,13 +51669,13 @@
         <v>102</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="BS220" s="3">
         <v>38234</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -51779,16 +51693,16 @@
         <v>101</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="CG220" s="1" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>130</v>
@@ -51829,13 +51743,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2733</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2734</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2735</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -51864,12 +51778,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2672</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>106</v>
       </c>
@@ -51925,7 +51834,7 @@
         <v>20</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="BE221" s="1" t="s">
         <v>113</v>
@@ -51937,7 +51846,7 @@
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>927</v>
@@ -51949,7 +51858,7 @@
         <v>105</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -51967,16 +51876,16 @@
         <v>101</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="CD221" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2741</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2742</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>933</v>
@@ -52017,13 +51926,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2743</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2744</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2745</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -52052,12 +51961,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2672</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>106</v>
       </c>
@@ -52110,7 +52014,7 @@
         <v>20</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="BE222" s="1" t="s">
         <v>113</v>
@@ -52122,7 +52026,7 @@
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="BI222" s="1" t="s">
         <v>1060</v>
@@ -52137,13 +52041,13 @@
         <v>229</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="BS222" s="3">
         <v>37069</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -52164,13 +52068,13 @@
         <v>752</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="CE222" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="CG222" s="1" t="s">
         <v>2750</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2751</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2752</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>1065</v>
@@ -52211,13 +52115,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="N223" s="1" t="s">
         <v>2753</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>2754</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2755</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -52246,12 +52150,7 @@
       <c r="AA223" s="1">
         <v>0</v>
       </c>
-      <c r="AC223" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD223" s="1" t="s">
-        <v>2672</v>
-      </c>
+      <c r="AC223" s="3"/>
       <c r="AF223" s="1" t="s">
         <v>106</v>
       </c>
@@ -52307,7 +52206,7 @@
         <v>20</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>113</v>
@@ -52319,7 +52218,7 @@
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="BI223" s="1" t="s">
         <v>927</v>
@@ -52331,7 +52230,7 @@
         <v>105</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52349,16 +52248,16 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="CD223" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="CE223" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CG223" s="1" t="s">
         <v>2760</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2761</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2762</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>933</v>
@@ -52399,13 +52298,13 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="N224" s="1" t="s">
         <v>2763</v>
-      </c>
-      <c r="L224" s="1" t="s">
-        <v>2764</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2765</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -52434,12 +52333,7 @@
       <c r="AA224" s="1">
         <v>0</v>
       </c>
-      <c r="AC224" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD224" s="1" t="s">
-        <v>2766</v>
-      </c>
+      <c r="AC224" s="3"/>
       <c r="AF224" s="1" t="s">
         <v>106</v>
       </c>
@@ -52486,7 +52380,7 @@
         <v>101</v>
       </c>
       <c r="AZ224" s="1" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="BB224" s="1">
         <v>4</v>
@@ -52495,7 +52389,7 @@
         <v>20</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="BE224" s="1" t="s">
         <v>113</v>
@@ -52507,10 +52401,10 @@
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>118</v>
@@ -52522,13 +52416,13 @@
         <v>229</v>
       </c>
       <c r="BR224" s="1" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="BS224" s="3">
         <v>35125</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52546,19 +52440,19 @@
         <v>101</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="CD224" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="CG224" s="1" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>130</v>
@@ -52596,13 +52490,13 @@
         <v>384</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -52686,7 +52580,7 @@
         <v>20</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>115</v>
@@ -52695,7 +52589,7 @@
         <v>118</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -52713,13 +52607,13 @@
         <v>92</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="CG225" s="1" t="s">
         <v>130</v>
@@ -52763,13 +52657,13 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
@@ -52853,7 +52747,7 @@
         <v>20</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="BG226" s="1" t="s">
         <v>115</v>
@@ -52862,7 +52756,7 @@
         <v>118</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>122</v>
@@ -52883,10 +52777,10 @@
         <v>552</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="CG226" s="1" t="s">
         <v>130</v>
@@ -52930,13 +52824,13 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
@@ -53023,7 +52917,7 @@
         <v>20</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="BE227" s="1" t="s">
         <v>113</v>
@@ -53035,13 +52929,13 @@
         <v>115</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -53059,16 +52953,16 @@
         <v>101</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="CE227" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="CG227" s="1" t="s">
         <v>2798</v>
-      </c>
-      <c r="CD227" s="1" t="s">
-        <v>2799</v>
-      </c>
-      <c r="CE227" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="CG227" s="1" t="s">
-        <v>2801</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>130</v>
@@ -53103,7 +52997,7 @@
         <v>94</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>96</v>
@@ -53112,10 +53006,10 @@
         <v>254</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="N228" s="1" t="s">
         <v>256</v>
@@ -53145,7 +53039,7 @@
         <v>42582</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>106</v>
@@ -53202,13 +53096,13 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="BI228" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>118</v>
@@ -53253,10 +53147,10 @@
         <v>265</v>
       </c>
       <c r="CG228" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>130</v>
@@ -53276,7 +53170,7 @@
         <v>188</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>92</v>
@@ -53288,22 +53182,22 @@
         <v>94</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="Q229" s="3">
         <v>17060</v>
@@ -53336,13 +53230,13 @@
         <v>42628</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="AH229" s="1" t="s">
         <v>138</v>
@@ -53387,22 +53281,22 @@
         <v>101</v>
       </c>
       <c r="AZ229" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="BB229" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC229" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD229" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="BH229" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2818</v>
-      </c>
-      <c r="BB229" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC229" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD229" s="1" t="s">
-        <v>2819</v>
-      </c>
-      <c r="BH229" s="1" t="s">
-        <v>2820</v>
-      </c>
-      <c r="BI229" s="1" t="s">
-        <v>2821</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>118</v>
@@ -53411,7 +53305,7 @@
         <v>105</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>122</v>
@@ -53420,7 +53314,7 @@
         <v>0</v>
       </c>
       <c r="BZ229" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="CA229" s="1" t="s">
         <v>124</v>
@@ -53435,13 +53329,13 @@
         <v>126</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="CG229" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="CH229" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>130</v>
@@ -53461,7 +53355,7 @@
         <v>188</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>101</v>
@@ -53473,22 +53367,22 @@
         <v>94</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="Q230" s="3">
         <v>26864</v>
@@ -53518,7 +53412,7 @@
         <v>42735</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>106</v>
@@ -53572,10 +53466,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>118</v>
@@ -53587,13 +53481,13 @@
         <v>229</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="BS230" s="3">
         <v>102</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -53605,7 +53499,7 @@
         <v>110</v>
       </c>
       <c r="BZ230" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="CA230" s="1" t="s">
         <v>124</v>
@@ -53614,16 +53508,16 @@
         <v>101</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="CD230" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="CE230" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="CG230" s="1" t="s">
         <v>2838</v>
-      </c>
-      <c r="CD230" s="1" t="s">
-        <v>2839</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2840</v>
-      </c>
-      <c r="CG230" s="1" t="s">
-        <v>2841</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>130</v>
@@ -53667,10 +53561,10 @@
         <v>1814</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="N231" s="1" t="s">
         <v>1816</v>
@@ -53703,7 +53597,7 @@
         <v>39800</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>240</v>
@@ -53757,10 +53651,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>118</v>
@@ -53811,7 +53705,7 @@
         <v>1822</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>130</v>
@@ -53834,7 +53728,7 @@
         <v>90</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>101</v>
@@ -53846,22 +53740,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="Q232" s="3">
         <v>17470</v>
@@ -53891,7 +53785,7 @@
         <v>43100</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>106</v>
@@ -53948,10 +53842,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>118</v>
@@ -53960,7 +53854,7 @@
         <v>105</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>122</v>
@@ -53984,16 +53878,16 @@
         <v>101</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>130</v>
@@ -54034,16 +53928,16 @@
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="Q233" s="3">
         <v>23356</v>
@@ -54070,7 +53964,7 @@
         <v>43105</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>106</v>
@@ -54124,10 +54018,10 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>118</v>
@@ -54139,13 +54033,13 @@
         <v>102</v>
       </c>
       <c r="BR233" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="BS233" s="3">
         <v>34412</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -54154,7 +54048,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>124</v>
@@ -54163,16 +54057,16 @@
         <v>101</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="CD233" s="1" t="s">
         <v>2262</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="CG233" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>130</v>
@@ -54213,16 +54107,16 @@
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="Q234" s="3">
         <v>17726</v>
@@ -54255,7 +54149,7 @@
         <v>43312</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>240</v>
@@ -54306,7 +54200,7 @@
         <v>101</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="BB234" s="1">
         <v>0</v>
@@ -54315,10 +54209,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>118</v>
@@ -54327,7 +54221,7 @@
         <v>105</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>122</v>
@@ -54336,7 +54230,7 @@
         <v>0</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>124</v>
@@ -54345,16 +54239,16 @@
         <v>101</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="CE234" s="1" t="s">
         <v>890</v>
       </c>
       <c r="CG234" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>130</v>
@@ -54395,16 +54289,16 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="Q235" s="3">
         <v>17041</v>
@@ -54431,7 +54325,7 @@
         <v>42735</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>106</v>
@@ -54488,10 +54382,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>118</v>
@@ -54500,7 +54394,7 @@
         <v>105</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>122</v>
@@ -54512,7 +54406,7 @@
         <v>110</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>124</v>
@@ -54521,16 +54415,16 @@
         <v>101</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="CD235" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="CE235" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="CG235" s="1" t="s">
         <v>2884</v>
-      </c>
-      <c r="CD235" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2886</v>
-      </c>
-      <c r="CG235" s="1" t="s">
-        <v>2887</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>130</v>
@@ -54553,7 +54447,7 @@
         <v>188</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>101</v>
@@ -54565,22 +54459,22 @@
         <v>94</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="Q236" s="3">
         <v>30147</v>
@@ -54603,17 +54497,12 @@
       <c r="AA236" s="1">
         <v>0</v>
       </c>
-      <c r="AC236" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD236" s="1" t="s">
-        <v>2672</v>
-      </c>
+      <c r="AC236" s="3"/>
       <c r="AF236" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>372</v>
@@ -54661,10 +54550,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>118</v>
@@ -54676,13 +54565,13 @@
         <v>102</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="BS236" s="3">
         <v>37124</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>122</v>
@@ -54691,7 +54580,7 @@
         <v>0</v>
       </c>
       <c r="BZ236" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="CA236" s="1" t="s">
         <v>124</v>
@@ -54700,16 +54589,16 @@
         <v>101</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="CG236" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>130</v>
@@ -54732,7 +54621,7 @@
         <v>188</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>101</v>
@@ -54744,22 +54633,22 @@
         <v>94</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="Q237" s="3">
         <v>17821</v>
@@ -54795,13 +54684,13 @@
         <v>43388</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG237" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="AH237" s="1" t="s">
         <v>1233</v>
@@ -54846,7 +54735,7 @@
         <v>101</v>
       </c>
       <c r="AZ237" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="BB237" s="1">
         <v>0</v>
@@ -54855,10 +54744,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>118</v>
@@ -54867,7 +54756,7 @@
         <v>105</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>122</v>
@@ -54885,16 +54774,16 @@
         <v>101</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="CE237" s="1" t="s">
         <v>500</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>130</v>
@@ -54908,10 +54797,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1231</v>
@@ -54926,7 +54815,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1231</v>
@@ -54935,13 +54824,13 @@
         <v>152</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -54995,7 +54884,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -55028,7 +54917,7 @@
         <v>20</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="BE238" s="1" t="s">
         <v>113</v>
@@ -55040,13 +54929,13 @@
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -55064,16 +54953,16 @@
         <v>101</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>305</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>130</v>
@@ -55087,10 +54976,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1231</v>
@@ -55105,7 +54994,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1231</v>
@@ -55114,13 +55003,13 @@
         <v>152</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -55171,7 +55060,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -55207,7 +55096,7 @@
         <v>20</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="BE239" s="1" t="s">
         <v>113</v>
@@ -55219,13 +55108,13 @@
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -55252,10 +55141,10 @@
         <v>1062</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -55269,10 +55158,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1231</v>
@@ -55287,7 +55176,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1231</v>
@@ -55296,13 +55185,13 @@
         <v>152</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -55353,7 +55242,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55389,7 +55278,7 @@
         <v>20</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="BE240" s="1" t="s">
         <v>113</v>
@@ -55401,13 +55290,13 @@
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -55428,16 +55317,16 @@
         <v>101</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="CD240" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="CE240" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="CG240" s="1" t="s">
         <v>2940</v>
-      </c>
-      <c r="CD240" s="1" t="s">
-        <v>2941</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2942</v>
-      </c>
-      <c r="CG240" s="1" t="s">
-        <v>2943</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>130</v>
@@ -55451,10 +55340,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1231</v>
@@ -55469,7 +55358,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1231</v>
@@ -55478,13 +55367,13 @@
         <v>152</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -55571,7 +55460,7 @@
         <v>20</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="BE241" s="1" t="s">
         <v>113</v>
@@ -55583,13 +55472,13 @@
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -55610,7 +55499,7 @@
         <v>101</v>
       </c>
       <c r="CC241" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="CD241" s="1" t="s">
         <v>594</v>
@@ -55619,7 +55508,7 @@
         <v>500</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>130</v>
@@ -55633,10 +55522,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1231</v>
@@ -55651,7 +55540,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1231</v>
@@ -55660,13 +55549,13 @@
         <v>152</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -55720,7 +55609,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -55756,7 +55645,7 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="BE242" s="1" t="s">
         <v>113</v>
@@ -55768,13 +55657,13 @@
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -55798,13 +55687,13 @@
         <v>484</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>130</v>
@@ -55818,10 +55707,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1231</v>
@@ -55836,7 +55725,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1231</v>
@@ -55845,13 +55734,13 @@
         <v>152</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -55938,7 +55827,7 @@
         <v>20</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="BE243" s="1" t="s">
         <v>113</v>
@@ -55950,13 +55839,13 @@
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -55977,16 +55866,16 @@
         <v>101</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>608</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>130</v>
@@ -56000,10 +55889,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1231</v>
@@ -56018,7 +55907,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1231</v>
@@ -56027,13 +55916,13 @@
         <v>152</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -56069,7 +55958,7 @@
         <v>106</v>
       </c>
       <c r="AG244" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="AH244" s="1" t="s">
         <v>1233</v>
@@ -56087,7 +55976,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -56123,7 +56012,7 @@
         <v>20</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="BE244" s="1" t="s">
         <v>113</v>
@@ -56135,13 +56024,13 @@
         <v>115</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -56162,16 +56051,16 @@
         <v>101</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="CD244" s="1" t="s">
         <v>993</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>130</v>
@@ -56185,10 +56074,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1231</v>
@@ -56203,7 +56092,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1231</v>
@@ -56212,13 +56101,13 @@
         <v>152</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -56272,7 +56161,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -56308,7 +56197,7 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BE245" s="1" t="s">
         <v>113</v>
@@ -56320,13 +56209,13 @@
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -56350,13 +56239,13 @@
         <v>979</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -56370,10 +56259,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1231</v>
@@ -56388,7 +56277,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1231</v>
@@ -56397,13 +56286,13 @@
         <v>152</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56457,7 +56346,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -56493,7 +56382,7 @@
         <v>20</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BE246" s="1" t="s">
         <v>113</v>
@@ -56505,13 +56394,13 @@
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -56538,10 +56427,10 @@
         <v>2100</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -56555,10 +56444,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1231</v>
@@ -56573,7 +56462,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1231</v>
@@ -56582,13 +56471,13 @@
         <v>152</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2206</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -56624,7 +56513,7 @@
         <v>106</v>
       </c>
       <c r="AG247" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="AH247" s="1" t="s">
         <v>1233</v>
@@ -56639,7 +56528,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -56672,19 +56561,19 @@
         <v>20</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -56702,16 +56591,16 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3003</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3004</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3005</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3006</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>130</v>
@@ -56725,10 +56614,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1231</v>
@@ -56743,7 +56632,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1231</v>
@@ -56752,13 +56641,13 @@
         <v>152</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>2214</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -56842,19 +56731,19 @@
         <v>20</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -56875,16 +56764,16 @@
         <v>2146</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="CG248" s="1" t="s">
         <v>3012</v>
-      </c>
-      <c r="CD248" s="1" t="s">
-        <v>3013</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3014</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>3015</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -56898,10 +56787,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1231</v>
@@ -56916,7 +56805,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1231</v>
@@ -56925,13 +56814,13 @@
         <v>152</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -57015,7 +56904,7 @@
         <v>20</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BE249" s="1" t="s">
         <v>113</v>
@@ -57027,13 +56916,13 @@
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -57054,13 +56943,13 @@
         <v>1176</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -57074,10 +56963,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1231</v>
@@ -57092,7 +56981,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1231</v>
@@ -57101,13 +56990,13 @@
         <v>152</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -57158,7 +57047,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -57194,7 +57083,7 @@
         <v>20</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BE250" s="1" t="s">
         <v>113</v>
@@ -57206,13 +57095,13 @@
         <v>115</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -57233,16 +57122,16 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>130</v>
@@ -57256,10 +57145,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1231</v>
@@ -57274,7 +57163,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1231</v>
@@ -57283,13 +57172,13 @@
         <v>152</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -57343,7 +57232,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57379,7 +57268,7 @@
         <v>20</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BE251" s="1" t="s">
         <v>113</v>
@@ -57391,13 +57280,13 @@
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -57418,16 +57307,16 @@
         <v>101</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3041</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3042</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3043</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3044</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -57441,10 +57330,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1231</v>
@@ -57459,7 +57348,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1231</v>
@@ -57468,13 +57357,13 @@
         <v>152</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -57528,7 +57417,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57564,7 +57453,7 @@
         <v>20</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BE252" s="1" t="s">
         <v>113</v>
@@ -57576,13 +57465,13 @@
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -57603,16 +57492,16 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3051</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3052</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3053</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3054</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>130</v>
@@ -57626,10 +57515,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1231</v>
@@ -57644,7 +57533,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1231</v>
@@ -57653,13 +57542,13 @@
         <v>152</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -57746,7 +57635,7 @@
         <v>20</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BE253" s="1" t="s">
         <v>113</v>
@@ -57758,13 +57647,13 @@
         <v>115</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -57785,16 +57674,16 @@
         <v>101</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>218</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>130</v>
@@ -57808,10 +57697,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1231</v>
@@ -57826,7 +57715,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1231</v>
@@ -57835,13 +57724,13 @@
         <v>152</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -57895,7 +57784,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -57931,7 +57820,7 @@
         <v>20</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="BE254" s="1" t="s">
         <v>113</v>
@@ -57943,19 +57832,19 @@
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW254" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="BX254" s="1">
         <v>0</v>
@@ -57973,16 +57862,16 @@
         <v>101</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -57996,10 +57885,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1231</v>
@@ -58014,7 +57903,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1231</v>
@@ -58023,13 +57912,13 @@
         <v>152</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -58080,7 +57969,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -58116,7 +58005,7 @@
         <v>20</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BE255" s="1" t="s">
         <v>113</v>
@@ -58128,13 +58017,13 @@
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -58155,16 +58044,16 @@
         <v>101</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -58178,10 +58067,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1231</v>
@@ -58196,7 +58085,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1231</v>
@@ -58205,13 +58094,13 @@
         <v>152</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -58238,7 +58127,7 @@
         <v>0</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>372</v>
@@ -58253,7 +58142,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -58283,7 +58172,7 @@
         <v>20</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="BE256" s="1" t="s">
         <v>113</v>
@@ -58295,13 +58184,13 @@
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -58319,16 +58208,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>305</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -58342,10 +58231,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1231</v>
@@ -58360,7 +58249,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1231</v>
@@ -58369,13 +58258,13 @@
         <v>152</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -58459,7 +58348,7 @@
         <v>20</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BE257" s="1" t="s">
         <v>113</v>
@@ -58471,13 +58360,13 @@
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58495,16 +58384,16 @@
         <v>101</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3097</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3098</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3099</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3100</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58518,10 +58407,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1231</v>
@@ -58536,7 +58425,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1231</v>
@@ -58545,13 +58434,13 @@
         <v>152</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -58638,7 +58527,7 @@
         <v>20</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BE258" s="1" t="s">
         <v>113</v>
@@ -58650,13 +58539,13 @@
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -58674,16 +58563,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3106</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3107</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3108</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3109</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3110</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -58697,10 +58586,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1231</v>
@@ -58715,7 +58604,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1231</v>
@@ -58724,13 +58613,13 @@
         <v>152</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -58739,7 +58628,7 @@
         <v>101</v>
       </c>
       <c r="Q259" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="R259" s="1" t="s">
         <v>136</v>
@@ -58781,7 +58670,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -58814,7 +58703,7 @@
         <v>20</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="BE259" s="1" t="s">
         <v>113</v>
@@ -58826,13 +58715,13 @@
         <v>115</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -58850,16 +58739,16 @@
         <v>101</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="CG259" s="1" t="s">
         <v>3118</v>
-      </c>
-      <c r="CD259" s="1" t="s">
-        <v>3119</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3120</v>
-      </c>
-      <c r="CG259" s="1" t="s">
-        <v>3121</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -58869,6 +58758,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI259" xr:uid="{A0BAEE94-4140-43AF-B400-8EFC884EAB07}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>